--- a/Data/4_PY_Manufacturing_V2.0.xlsx
+++ b/Data/4_PY_Manufacturing_V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13692" windowHeight="5376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13692" windowHeight="5376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="234">
   <si>
     <t>Date created</t>
   </si>
@@ -490,12 +490,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>SSP_Regions_32</t>
-  </si>
-  <si>
-    <t>regions</t>
-  </si>
-  <si>
     <t>Yield factors, mean estimate</t>
   </si>
   <si>
@@ -536,6 +530,195 @@
   </si>
   <si>
     <t>4_PY_Manufacturing</t>
+  </si>
+  <si>
+    <t>solar photovoltaic power plant</t>
+  </si>
+  <si>
+    <t>concentrating solar power plant (CSP)</t>
+  </si>
+  <si>
+    <t>wind power plant onshore</t>
+  </si>
+  <si>
+    <t>wind power plant offshore</t>
+  </si>
+  <si>
+    <t>hydro power plant</t>
+  </si>
+  <si>
+    <t>nuclear power plant</t>
+  </si>
+  <si>
+    <t>coal power plant</t>
+  </si>
+  <si>
+    <t>coal power plant without abatement measures</t>
+  </si>
+  <si>
+    <t>bio powerplant</t>
+  </si>
+  <si>
+    <t>oil power plant</t>
+  </si>
+  <si>
+    <t>geothermal power plant</t>
+  </si>
+  <si>
+    <t>IGCC power plant</t>
+  </si>
+  <si>
+    <t>light oil combined cycle</t>
+  </si>
+  <si>
+    <t>gas combined cycle power plant</t>
+  </si>
+  <si>
+    <t>advanced coal power plant with CCS</t>
+  </si>
+  <si>
+    <t>coal power plant with CCS</t>
+  </si>
+  <si>
+    <t>biomass power plant with CCS</t>
+  </si>
+  <si>
+    <t>gas combined cycle power plant with CCS</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Air-cooler</t>
+  </si>
+  <si>
+    <t>Air-conditioning</t>
+  </si>
+  <si>
+    <t>Refridgerator</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Tumble dryer</t>
+  </si>
+  <si>
+    <t>Dish washer</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/DVD player</t>
+  </si>
+  <si>
+    <t>PC &amp; Laptop computers</t>
+  </si>
+  <si>
+    <t>Other small appliances</t>
+  </si>
+  <si>
+    <t>manufacturing of solar photovoltaic power plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturing of concentrating solar power plant (CSP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturing of wind power plant onshore </t>
+  </si>
+  <si>
+    <t>manufacturing of wind power plant offshore</t>
+  </si>
+  <si>
+    <t>manufacturing of hydro power plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturing of nuclear power plant </t>
+  </si>
+  <si>
+    <t>manufacturing of coal power plant</t>
+  </si>
+  <si>
+    <t>manufacturing of coal power plant without abatement measures</t>
+  </si>
+  <si>
+    <t>manufacturing of bio powerplant</t>
+  </si>
+  <si>
+    <t>manufacturing of oil power plant</t>
+  </si>
+  <si>
+    <t>manufacturing of geothermal power plant</t>
+  </si>
+  <si>
+    <t>manufacturing of IGCC power plant</t>
+  </si>
+  <si>
+    <t>manufacturing of light oil combined cycle</t>
+  </si>
+  <si>
+    <t>manufacturing of gas combined cycle power plant</t>
+  </si>
+  <si>
+    <t>manufacturing of advanced coal power plant with CCS</t>
+  </si>
+  <si>
+    <t>manufacturing of coal power plant with CCS</t>
+  </si>
+  <si>
+    <t>manufacturing of biomass power plant with CCS</t>
+  </si>
+  <si>
+    <t>manufacturing of gas combined cycle power plant with CCS</t>
+  </si>
+  <si>
+    <t>manufacturing of Fan</t>
+  </si>
+  <si>
+    <t>manufacturing of Air-cooler</t>
+  </si>
+  <si>
+    <t>manufacturing of Air-conditioning</t>
+  </si>
+  <si>
+    <t>manufacturing of Refridgerator</t>
+  </si>
+  <si>
+    <t>manufacturing of Microwave</t>
+  </si>
+  <si>
+    <t>manufacturing of Washing Machine</t>
+  </si>
+  <si>
+    <t>manufacturing of Tumble dryer</t>
+  </si>
+  <si>
+    <t>manufacturing of Dish washer</t>
+  </si>
+  <si>
+    <t>manufacturing of Television</t>
+  </si>
+  <si>
+    <t>manufacturing of VCR/DVD player</t>
+  </si>
+  <si>
+    <t>manufacturing of PC &amp; Laptop computers</t>
+  </si>
+  <si>
+    <t>manufacturing of Other small appliances</t>
+  </si>
+  <si>
+    <t>#1 Copper scrap</t>
+  </si>
+  <si>
+    <t>SSP_Regions_1</t>
+  </si>
+  <si>
+    <t>wOrld O</t>
   </si>
 </sst>
 </file>
@@ -813,8 +996,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1118,11 +1301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" customWidth="1"/>
@@ -1166,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
@@ -1256,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1271,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1331,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
@@ -1412,7 +1595,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="19">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>24</v>
@@ -1454,7 +1637,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>24</v>
@@ -1477,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>24</v>
@@ -1554,10 +1737,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>24</v>
@@ -1663,11 +1846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
@@ -1697,7 +1880,7 @@
         <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>68</v>
@@ -1714,10 +1897,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -1729,12 +1912,12 @@
         <v>2015</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="27">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1751,17 +1934,17 @@
       <c r="B3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E3">
         <v>2015</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G3" s="27">
         <v>0.2</v>
@@ -1778,27 +1961,27 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E4">
         <v>2015</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G4" s="27">
         <v>0.2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -1810,59 +1993,59 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E5">
         <v>2015</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G5" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E6">
         <v>2015</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" s="27">
-        <v>0.16</v>
-      </c>
-      <c r="H6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1874,25 +2057,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E7">
         <v>2015</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="27">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1906,25 +2089,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="E8">
         <v>2015</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G8" s="27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
@@ -1938,27 +2121,27 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E9">
         <v>2015</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -1970,22 +2153,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E10">
         <v>2015</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G10" s="27">
         <v>0</v>
@@ -2008,22 +2191,22 @@
       <c r="B11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>142</v>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E11">
         <v>2015</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G11" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -2036,25 +2219,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>142</v>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E12">
         <v>2015</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G12" s="27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -2069,25 +2252,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E13">
         <v>2015</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G13" s="27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -2096,31 +2279,31 @@
         <v>26</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="E14">
         <v>2015</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G14" s="27">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -2135,27 +2318,27 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E15">
         <v>2015</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G15" s="27">
-        <v>0.16</v>
-      </c>
-      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -2168,25 +2351,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="E16">
         <v>2015</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -2201,25 +2384,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>142</v>
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
       </c>
       <c r="E17">
         <v>2015</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="27">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2234,27 +2417,27 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18">
         <v>2015</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -2267,10 +2450,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>27</v>
@@ -2282,10 +2465,10 @@
         <v>2015</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19" s="27">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2300,27 +2483,27 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20">
         <v>2015</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G20" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -2333,60 +2516,60 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E21">
         <v>2015</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G21" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E22">
         <v>2015</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G22" s="27">
         <v>0.16</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -2404,20 +2587,20 @@
       <c r="B23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>143</v>
+      <c r="C23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="E23">
         <v>2015</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G23" s="27">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2432,27 +2615,27 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>143</v>
+        <v>80</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E24">
         <v>2015</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G24" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="H24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -2465,25 +2648,25 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>143</v>
+        <v>80</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E25">
         <v>2015</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G25" s="27">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2498,27 +2681,27 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E26">
         <v>2015</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -2531,25 +2714,25 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E27">
         <v>2015</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G27" s="27">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2564,27 +2747,27 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E28">
         <v>2015</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G28" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -2597,60 +2780,60 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="E29">
         <v>2015</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G29" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E30">
         <v>2015</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G30" s="27">
-        <v>0.16</v>
-      </c>
-      <c r="H30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -2668,20 +2851,20 @@
       <c r="B31" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>144</v>
+      <c r="C31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="E31">
         <v>2015</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G31" s="27">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2696,25 +2879,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
       </c>
       <c r="E32">
         <v>2015</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G32" s="27">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="H32" s="9">
         <v>1</v>
@@ -2723,64 +2906,64 @@
         <v>26</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>2015</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G33" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="H33">
+        <v>0.01</v>
+      </c>
+      <c r="H33" s="9">
         <v>1</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E34">
         <v>2015</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G34" s="27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
@@ -2789,51 +2972,51 @@
         <v>26</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35">
         <v>2015</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G35" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H35">
+        <v>0.01</v>
+      </c>
+      <c r="H35" s="9">
         <v>1</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>29</v>
@@ -2845,10 +3028,10 @@
         <v>2015</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G36" s="27">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
@@ -2857,7 +3040,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="9"/>
@@ -2870,16 +3053,16 @@
         <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37">
         <v>2015</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G37" s="27">
         <v>0.01</v>
@@ -2891,32 +3074,32 @@
         <v>26</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G38" s="27">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
@@ -2925,66 +3108,66 @@
         <v>26</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E39">
         <v>2015</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G39" s="27">
-        <v>0.16</v>
-      </c>
-      <c r="H39">
+        <v>0.01</v>
+      </c>
+      <c r="H39" s="9">
         <v>1</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E40">
         <v>2015</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G40" s="27">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="H40" s="9">
         <v>1</v>
@@ -2993,66 +3176,66 @@
         <v>26</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E41">
         <v>2015</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G41" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="H41">
+        <v>0.01</v>
+      </c>
+      <c r="H41" s="9">
         <v>1</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>146</v>
+      <c r="C42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E42">
         <v>2015</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G42" s="27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H42" s="9">
         <v>1</v>
@@ -3061,66 +3244,66 @@
         <v>26</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>146</v>
+        <v>76</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E43">
         <v>2015</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H43">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="9">
         <v>1</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="9"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>146</v>
+        <v>76</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="E44">
         <v>2015</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" s="27">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H44" s="9">
         <v>1</v>
@@ -3129,7 +3312,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="9"/>
@@ -3141,17 +3324,17 @@
       <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>146</v>
+      <c r="C45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E45">
         <v>2015</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G45" s="27">
         <v>0.01</v>
@@ -3163,32 +3346,32 @@
         <v>26</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>146</v>
+        <v>76</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="E46">
         <v>2015</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G46" s="27">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="H46" s="9">
         <v>1</v>
@@ -3197,168 +3380,168 @@
         <v>26</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
       </c>
       <c r="E47">
         <v>2015</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G47" s="27">
-        <v>0.16</v>
-      </c>
-      <c r="H47">
+        <v>0.03</v>
+      </c>
+      <c r="H47" s="9">
         <v>1</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
       </c>
       <c r="E48">
         <v>2015</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G48" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="H48" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
       </c>
       <c r="E49">
         <v>2015</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G49" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="H49">
+        <v>0.03</v>
+      </c>
+      <c r="H49" s="9">
         <v>1</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="9"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
       </c>
       <c r="E50">
         <v>2015</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G50" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H50" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
       </c>
       <c r="E51">
         <v>2015</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G51" s="27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H51" s="9">
         <v>1</v>
@@ -3367,64 +3550,64 @@
         <v>26</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
       </c>
       <c r="E52">
         <v>2015</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G52" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
       </c>
       <c r="E53">
         <v>2015</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G53" s="27">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H53" s="9">
         <v>1</v>
@@ -3433,97 +3616,97 @@
         <v>26</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
       </c>
       <c r="E54">
         <v>2015</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G54" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H54" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
       </c>
       <c r="E55">
         <v>2015</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G55" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H55">
+        <v>0.03</v>
+      </c>
+      <c r="H55" s="9">
         <v>1</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" t="s">
         <v>147</v>
       </c>
       <c r="E56">
         <v>2015</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G56" s="27">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="H56" s="9">
         <v>1</v>
@@ -3532,31 +3715,31 @@
         <v>26</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>148</v>
       </c>
       <c r="E57">
         <v>2015</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G57" s="27">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3565,31 +3748,31 @@
         <v>26</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
       </c>
       <c r="E58">
         <v>2015</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G58" s="27">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H58" s="9">
         <v>1</v>
@@ -3598,64 +3781,64 @@
         <v>26</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
       </c>
       <c r="E59">
         <v>2015</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G59" s="27">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
       </c>
       <c r="E60">
         <v>2015</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G60" s="27">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H60" s="9">
         <v>1</v>
@@ -3664,64 +3847,64 @@
         <v>26</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
       </c>
       <c r="E61">
         <v>2015</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G61" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H61" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
       </c>
       <c r="E62">
         <v>2015</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G62" s="27">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H62" s="9">
         <v>1</v>
@@ -3730,31 +3913,31 @@
         <v>26</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M62" s="9"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
       </c>
       <c r="E63">
         <v>2015</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G63" s="27">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3763,31 +3946,31 @@
         <v>26</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M63" s="9"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" t="s">
+        <v>155</v>
       </c>
       <c r="E64">
         <v>2015</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G64" s="27">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="H64" s="9">
         <v>1</v>
@@ -3796,33 +3979,33 @@
         <v>26</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>148</v>
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
       </c>
       <c r="E65">
         <v>2015</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G65" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
         <v>1</v>
       </c>
       <c r="I65" s="9" t="s">
@@ -3840,20 +4023,20 @@
       <c r="B66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>149</v>
+      <c r="C66" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E66">
         <v>2015</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G66" s="27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H66" s="9">
         <v>1</v>
@@ -3868,22 +4051,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>149</v>
+        <v>76</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E67">
         <v>2015</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G67" s="27">
         <v>0</v>
@@ -3901,25 +4084,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>149</v>
+        <v>76</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E68">
         <v>2015</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G68" s="27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="9">
         <v>1</v>
@@ -3934,25 +4117,25 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>149</v>
+      <c r="C69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E69">
         <v>2015</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G69" s="27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H69" s="9">
         <v>1</v>
@@ -3961,31 +4144,31 @@
         <v>26</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>149</v>
+        <v>76</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E70">
         <v>2015</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G70" s="27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="9">
         <v>1</v>
@@ -4000,27 +4183,27 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E71">
         <v>2015</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G71" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H71">
+        <v>0.05</v>
+      </c>
+      <c r="H71" s="9">
         <v>1</v>
       </c>
       <c r="I71" s="9" t="s">
@@ -4033,25 +4216,25 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72">
         <v>2015</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G72" s="27">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="H72" s="9">
         <v>1</v>
@@ -4066,10 +4249,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>55</v>
@@ -4081,12 +4264,12 @@
         <v>2015</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G73" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="H73">
+        <v>0.05</v>
+      </c>
+      <c r="H73" s="9">
         <v>1</v>
       </c>
       <c r="I73" s="9" t="s">
@@ -4114,7 +4297,7 @@
         <v>2015</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G74" s="27">
         <v>0.05</v>
@@ -4132,25 +4315,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E75">
         <v>2015</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G75" s="27">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H75" s="9">
         <v>1</v>
@@ -4165,25 +4348,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E76">
         <v>2015</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G76" s="27">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H76" s="9">
         <v>1</v>
@@ -4198,25 +4381,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E77">
         <v>2015</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G77" s="27">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H77" s="9">
         <v>1</v>
@@ -4225,31 +4408,31 @@
         <v>26</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M77" s="9"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E78">
         <v>2015</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G78" s="27">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H78" s="9">
         <v>1</v>
@@ -4264,27 +4447,27 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E79">
         <v>2015</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G79" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H79">
+        <v>0.05</v>
+      </c>
+      <c r="H79" s="9">
         <v>1</v>
       </c>
       <c r="I79" s="9" t="s">
@@ -4302,20 +4485,20 @@
       <c r="B80" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>150</v>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
       </c>
       <c r="E80">
         <v>2015</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G80" s="27">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="H80" s="9">
         <v>1</v>
@@ -4330,27 +4513,27 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>150</v>
+      <c r="C81" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E81">
         <v>2015</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G81" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="H81">
+        <v>0.33</v>
+      </c>
+      <c r="H81" s="9">
         <v>1</v>
       </c>
       <c r="I81" s="9" t="s">
@@ -4363,25 +4546,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>151</v>
+        <v>81</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E82">
         <v>2015</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G82" s="27">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="H82" s="9">
         <v>1</v>
@@ -4396,25 +4579,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>151</v>
+        <v>81</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E83">
         <v>2015</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" s="27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H83" s="9">
         <v>1</v>
@@ -4429,25 +4612,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>151</v>
+        <v>81</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E84">
         <v>2015</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" s="27">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="H84" s="9">
         <v>1</v>
@@ -4462,25 +4645,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>151</v>
+        <v>81</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E85">
         <v>2015</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" s="27">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="H85" s="9">
         <v>1</v>
@@ -4489,31 +4672,31 @@
         <v>26</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" s="27">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="H86" s="9">
         <v>1</v>
@@ -4528,27 +4711,27 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H87">
+        <v>0.22</v>
+      </c>
+      <c r="H87" s="9">
         <v>1</v>
       </c>
       <c r="I87" s="9" t="s">
@@ -4567,16 +4750,16 @@
         <v>81</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G88" s="27">
         <v>0.22</v>
@@ -4594,27 +4777,27 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" s="27">
         <v>0.22</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="9">
         <v>1</v>
       </c>
       <c r="I89" s="9" t="s">
@@ -4627,25 +4810,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G90" s="27">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="H90" s="9">
         <v>1</v>
@@ -4660,10 +4843,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>58</v>
@@ -4675,10 +4858,10 @@
         <v>2015</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G91" s="27">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H91" s="9">
         <v>1</v>
@@ -4693,25 +4876,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E92">
         <v>2015</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G92" s="27">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="H92" s="9">
         <v>1</v>
@@ -4726,25 +4909,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E93">
         <v>2015</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G93" s="27">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="H93" s="9">
         <v>1</v>
@@ -4753,31 +4936,31 @@
         <v>26</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M93" s="9"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E94">
         <v>2015</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G94" s="27">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="H94" s="9">
         <v>1</v>
@@ -4792,25 +4975,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
       </c>
       <c r="E95">
         <v>2015</v>
       </c>
       <c r="F95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G95" s="27">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -4825,27 +5008,27 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>152</v>
+      <c r="C96" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E96">
         <v>2015</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G96" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="H96" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="H96">
         <v>1</v>
       </c>
       <c r="I96" s="9" t="s">
@@ -4863,20 +5046,20 @@
       <c r="B97" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>152</v>
+      <c r="C97" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E97">
         <v>2015</v>
       </c>
       <c r="F97" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G97" s="27">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -4891,27 +5074,27 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E98">
         <v>2015</v>
       </c>
       <c r="F98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G98" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H98" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="H98">
         <v>1</v>
       </c>
       <c r="I98" s="9" t="s">
@@ -4924,27 +5107,27 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E99">
         <v>2015</v>
       </c>
       <c r="F99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G99" s="27">
-        <v>0</v>
-      </c>
-      <c r="H99" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" s="9" t="s">
@@ -4957,27 +5140,27 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E100">
         <v>2015</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G100" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H100" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="H100">
         <v>1</v>
       </c>
       <c r="I100" s="9" t="s">
@@ -4990,60 +5173,60 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E101">
         <v>2015</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G101" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H101" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="M101" s="9"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E102">
         <v>2015</v>
       </c>
       <c r="F102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G102" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H102" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" s="9" t="s">
@@ -5056,25 +5239,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E103">
         <v>2015</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G103" s="27">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5089,27 +5272,27 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E104">
         <v>2015</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G104" s="27">
         <v>0.22</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" s="9" t="s">
@@ -5128,16 +5311,16 @@
         <v>81</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E105">
         <v>2015</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G105" s="27">
         <v>0.22</v>
@@ -5155,27 +5338,27 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E106">
         <v>2015</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G106" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H106" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H106">
         <v>1</v>
       </c>
       <c r="I106" s="9" t="s">
@@ -5188,27 +5371,27 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E107">
         <v>2015</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G107" s="27">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H107">
         <v>1</v>
       </c>
       <c r="I107" s="9" t="s">
@@ -5221,10 +5404,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>60</v>
@@ -5236,12 +5419,12 @@
         <v>2015</v>
       </c>
       <c r="F108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G108" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H108" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H108">
         <v>1</v>
       </c>
       <c r="I108" s="9" t="s">
@@ -5254,223 +5437,223 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E109">
         <v>2015</v>
       </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G109" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110">
+        <v>2015</v>
+      </c>
+      <c r="F110" t="s">
+        <v>164</v>
+      </c>
+      <c r="G110" s="27">
         <v>0.01</v>
       </c>
-      <c r="H109" s="9">
-        <v>1</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J109" s="9" t="s">
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>165</v>
       </c>
-      <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110">
-        <v>2015</v>
-      </c>
-      <c r="F110" t="s">
-        <v>166</v>
-      </c>
-      <c r="G110" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H110" s="9">
-        <v>1</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="35" t="s">
-        <v>138</v>
-      </c>
       <c r="B111" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E111">
         <v>2015</v>
       </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G111" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H111">
+        <v>0.01</v>
+      </c>
+      <c r="H111" s="9">
         <v>1</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M111" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="35" t="s">
-        <v>139</v>
+      <c r="A112" t="s">
+        <v>165</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E112">
         <v>2015</v>
       </c>
       <c r="F112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G112" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="H112" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M112" s="9"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="35" t="s">
-        <v>140</v>
+      <c r="A113" t="s">
+        <v>165</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E113">
         <v>2015</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G113" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="H113">
+        <v>0.01</v>
+      </c>
+      <c r="H113" s="9">
         <v>1</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M113" s="9"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="35" t="s">
-        <v>135</v>
+      <c r="A114" t="s">
+        <v>165</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E114">
         <v>2015</v>
       </c>
       <c r="F114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G114" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H114" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="H114">
         <v>1</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M114" s="9"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="s">
-        <v>136</v>
+      <c r="A115" t="s">
+        <v>165</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E115">
         <v>2015</v>
       </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G115" s="27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H115" s="9">
         <v>1</v>
@@ -5479,31 +5662,31 @@
         <v>26</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M115" s="9"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="35" t="s">
-        <v>88</v>
+      <c r="A116" t="s">
+        <v>165</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" t="s">
+        <v>147</v>
       </c>
       <c r="E116">
         <v>2015</v>
       </c>
       <c r="F116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G116" s="27">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H116" s="9">
         <v>1</v>
@@ -5512,64 +5695,64 @@
         <v>26</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M116" s="9"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="35" t="s">
-        <v>115</v>
+      <c r="A117" t="s">
+        <v>165</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" t="s">
+        <v>148</v>
       </c>
       <c r="E117">
         <v>2015</v>
       </c>
       <c r="F117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G117" s="27">
         <v>0.01</v>
       </c>
-      <c r="H117" s="9">
+      <c r="H117">
         <v>1</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J117" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>165</v>
       </c>
-      <c r="M117" s="9"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="35" t="s">
-        <v>137</v>
-      </c>
       <c r="B118" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C118" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" t="s">
+        <v>149</v>
       </c>
       <c r="E118">
         <v>2015</v>
       </c>
       <c r="F118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G118" s="27">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H118" s="9">
         <v>1</v>
@@ -5578,31 +5761,31 @@
         <v>26</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="35" t="s">
-        <v>138</v>
+      <c r="A119" t="s">
+        <v>165</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C119" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" t="s">
+        <v>150</v>
       </c>
       <c r="E119">
         <v>2015</v>
       </c>
       <c r="F119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G119" s="27">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5611,31 +5794,31 @@
         <v>26</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M119" s="9"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="35" t="s">
-        <v>139</v>
+      <c r="A120" t="s">
+        <v>165</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>151</v>
       </c>
       <c r="E120">
         <v>2015</v>
       </c>
       <c r="F120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G120" s="27">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="H120" s="9">
         <v>1</v>
@@ -5644,31 +5827,31 @@
         <v>26</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M120" s="9"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="35" t="s">
-        <v>140</v>
+      <c r="A121" t="s">
+        <v>165</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="C121" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" t="s">
+        <v>152</v>
       </c>
       <c r="E121">
         <v>2015</v>
       </c>
       <c r="F121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G121" s="27">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -5677,31 +5860,31 @@
         <v>26</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M121" s="9"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="35" t="s">
-        <v>164</v>
+      <c r="A122" t="s">
+        <v>165</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D122" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E122">
         <v>2015</v>
       </c>
       <c r="F122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G122" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H122" s="9">
         <v>1</v>
@@ -5710,30 +5893,30 @@
         <v>26</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="35" t="s">
-        <v>164</v>
+      <c r="A123" t="s">
+        <v>165</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E123">
         <v>2015</v>
       </c>
       <c r="F123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G123" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -5742,30 +5925,30 @@
         <v>26</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="35" t="s">
-        <v>164</v>
+      <c r="A124" t="s">
+        <v>165</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E124">
         <v>2015</v>
       </c>
       <c r="F124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G124" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H124" s="9">
         <v>1</v>
@@ -5774,62 +5957,62 @@
         <v>26</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E125">
         <v>2015</v>
       </c>
       <c r="F125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G125" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="H125">
+        <v>0.2</v>
+      </c>
+      <c r="H125" s="9">
         <v>1</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" t="s">
-        <v>57</v>
-      </c>
-      <c r="D126" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E126">
         <v>2015</v>
       </c>
       <c r="F126" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G126" s="27">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="H126" s="9">
         <v>1</v>
@@ -5838,62 +6021,62 @@
         <v>26</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="35" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" t="s">
-        <v>58</v>
-      </c>
-      <c r="D127" t="s">
-        <v>152</v>
+        <v>77</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E127">
         <v>2015</v>
       </c>
       <c r="F127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G127" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="H127" s="9">
         <v>1</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="35" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" t="s">
-        <v>153</v>
+        <v>77</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E128">
         <v>2015</v>
       </c>
       <c r="F128" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G128" s="27">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="H128" s="9">
         <v>1</v>
@@ -5902,350 +6085,350 @@
         <v>26</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" t="s">
-        <v>154</v>
+        <v>77</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E129">
         <v>2015</v>
       </c>
       <c r="F129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G129" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="H129" s="9">
         <v>1</v>
       </c>
       <c r="I129" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130">
+        <v>2015</v>
+      </c>
+      <c r="F130" t="s">
+        <v>164</v>
+      </c>
+      <c r="G130" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H130" s="9">
+        <v>1</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131">
+        <v>2015</v>
+      </c>
+      <c r="F131" t="s">
+        <v>164</v>
+      </c>
+      <c r="G131" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132">
+        <v>2015</v>
+      </c>
+      <c r="F132" t="s">
+        <v>164</v>
+      </c>
+      <c r="G132" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H132" s="9">
+        <v>1</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133">
+        <v>2015</v>
+      </c>
+      <c r="F133" t="s">
+        <v>164</v>
+      </c>
+      <c r="G133" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H133" s="9">
+        <v>1</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E134">
+        <v>2015</v>
+      </c>
+      <c r="F134" t="s">
+        <v>164</v>
+      </c>
+      <c r="G134" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H134" s="9">
+        <v>1</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135">
+        <v>2015</v>
+      </c>
+      <c r="F135" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H135" s="9">
+        <v>1</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136">
+        <v>2015</v>
+      </c>
+      <c r="F136" t="s">
+        <v>164</v>
+      </c>
+      <c r="G136" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H136" s="9">
+        <v>1</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137">
+        <v>2015</v>
+      </c>
+      <c r="F137" t="s">
+        <v>164</v>
+      </c>
+      <c r="G137" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H137" s="9">
+        <v>1</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E138">
+        <v>2015</v>
+      </c>
+      <c r="F138" t="s">
+        <v>164</v>
+      </c>
+      <c r="G138" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H138" s="9">
+        <v>1</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D139" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E130">
-        <v>2015</v>
-      </c>
-      <c r="F130" t="s">
-        <v>166</v>
-      </c>
-      <c r="G130" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="H130" s="9">
-        <v>1</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>167</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D131" t="s">
-        <v>141</v>
-      </c>
-      <c r="E131">
-        <v>2015</v>
-      </c>
-      <c r="F131" t="s">
-        <v>166</v>
-      </c>
-      <c r="G131" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>167</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E132">
-        <v>2015</v>
-      </c>
-      <c r="F132" t="s">
-        <v>166</v>
-      </c>
-      <c r="G132" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H132" s="9">
-        <v>1</v>
-      </c>
-      <c r="I132" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E133">
-        <v>2015</v>
-      </c>
-      <c r="F133" t="s">
-        <v>166</v>
-      </c>
-      <c r="G133" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E134">
-        <v>2015</v>
-      </c>
-      <c r="F134" t="s">
-        <v>166</v>
-      </c>
-      <c r="G134" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H134" s="9">
-        <v>1</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135">
-        <v>2015</v>
-      </c>
-      <c r="F135" t="s">
-        <v>166</v>
-      </c>
-      <c r="G135" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E136">
-        <v>2015</v>
-      </c>
-      <c r="F136" t="s">
-        <v>166</v>
-      </c>
-      <c r="G136" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H136" s="9">
-        <v>1</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" t="s">
-        <v>53</v>
-      </c>
-      <c r="D137" t="s">
-        <v>147</v>
-      </c>
-      <c r="E137">
-        <v>2015</v>
-      </c>
-      <c r="F137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G137" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H137" s="9">
-        <v>1</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" t="s">
-        <v>54</v>
-      </c>
-      <c r="D138" t="s">
-        <v>148</v>
-      </c>
-      <c r="E138">
-        <v>2015</v>
-      </c>
-      <c r="F138" t="s">
-        <v>166</v>
-      </c>
-      <c r="G138" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" t="s">
-        <v>55</v>
-      </c>
-      <c r="D139" t="s">
-        <v>149</v>
-      </c>
       <c r="E139">
         <v>2015</v>
       </c>
       <c r="F139" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G139" s="27">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H139" s="9">
         <v>1</v>
@@ -6254,27 +6437,27 @@
         <v>26</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D140" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E140">
         <v>2015</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G140" s="27">
         <v>0.01</v>
@@ -6286,27 +6469,27 @@
         <v>26</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C141" t="s">
-        <v>57</v>
-      </c>
-      <c r="D141" t="s">
-        <v>151</v>
+      <c r="C141" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E141">
         <v>2015</v>
       </c>
       <c r="F141" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G141" s="27">
         <v>0.01</v>
@@ -6318,27 +6501,27 @@
         <v>26</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C142" t="s">
-        <v>58</v>
-      </c>
-      <c r="D142" t="s">
-        <v>152</v>
+      <c r="C142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E142">
         <v>2015</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G142" s="27">
         <v>0.01</v>
@@ -6350,27 +6533,27 @@
         <v>26</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C143" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143" t="s">
-        <v>153</v>
+      <c r="C143" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E143">
         <v>2015</v>
       </c>
       <c r="F143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G143" s="27">
         <v>0.01</v>
@@ -6382,27 +6565,27 @@
         <v>26</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C144" t="s">
-        <v>60</v>
-      </c>
-      <c r="D144" t="s">
-        <v>154</v>
+      <c r="C144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E144">
         <v>2015</v>
       </c>
       <c r="F144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G144" s="27">
         <v>0.01</v>
@@ -6414,27 +6597,27 @@
         <v>26</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C145" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145" t="s">
-        <v>155</v>
+      <c r="C145" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E145">
         <v>2015</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G145" s="27">
         <v>0.01</v>
@@ -6446,219 +6629,219 @@
         <v>26</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E146">
         <v>2015</v>
       </c>
       <c r="F146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G146" s="27">
         <v>0.01</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="9">
         <v>1</v>
       </c>
       <c r="I146" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>142</v>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>148</v>
       </c>
       <c r="E147">
         <v>2015</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G147" s="27">
         <v>0.01</v>
       </c>
-      <c r="H147" s="9">
+      <c r="H147">
         <v>1</v>
       </c>
       <c r="I147" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>143</v>
+      <c r="C148" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" t="s">
+        <v>149</v>
       </c>
       <c r="E148">
         <v>2015</v>
       </c>
       <c r="F148" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G148" s="27">
         <v>0.01</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="9">
         <v>1</v>
       </c>
       <c r="I148" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>144</v>
+      <c r="C149" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" t="s">
+        <v>150</v>
       </c>
       <c r="E149">
         <v>2015</v>
       </c>
       <c r="F149" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G149" s="27">
         <v>0.01</v>
       </c>
-      <c r="H149" s="9">
+      <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>145</v>
+      <c r="C150" t="s">
+        <v>57</v>
+      </c>
+      <c r="D150" t="s">
+        <v>151</v>
       </c>
       <c r="E150">
         <v>2015</v>
       </c>
       <c r="F150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G150" s="27">
         <v>0.01</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="9">
         <v>1</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>146</v>
+      <c r="C151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" t="s">
+        <v>152</v>
       </c>
       <c r="E151">
         <v>2015</v>
       </c>
       <c r="F151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G151" s="27">
         <v>0.01</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151">
         <v>1</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D152" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E152">
         <v>2015</v>
       </c>
       <c r="F152" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G152" s="27">
         <v>0.01</v>
@@ -6670,27 +6853,27 @@
         <v>26</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D153" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E153">
         <v>2015</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G153" s="27">
         <v>0.01</v>
@@ -6702,27 +6885,27 @@
         <v>26</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C154" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D154" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E154">
         <v>2015</v>
       </c>
       <c r="F154" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G154" s="27">
         <v>0.01</v>
@@ -6734,478 +6917,478 @@
         <v>26</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>168</v>
+      <c r="A155" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>141</v>
+      </c>
+      <c r="E155">
+        <v>2015</v>
+      </c>
+      <c r="F155" t="s">
+        <v>164</v>
+      </c>
+      <c r="G155" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="H155" s="9">
+        <v>1</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E156">
+        <v>2015</v>
+      </c>
+      <c r="F156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G156" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="H156" s="9">
+        <v>1</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157">
+        <v>2015</v>
+      </c>
+      <c r="F157" t="s">
+        <v>164</v>
+      </c>
+      <c r="G157" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="H157" s="9">
+        <v>1</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158">
+        <v>2015</v>
+      </c>
+      <c r="F158" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="H158" s="9">
+        <v>1</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159">
+        <v>2015</v>
+      </c>
+      <c r="F159" t="s">
+        <v>164</v>
+      </c>
+      <c r="G159" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="H159" s="9">
+        <v>1</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160">
+        <v>2015</v>
+      </c>
+      <c r="F160" t="s">
+        <v>164</v>
+      </c>
+      <c r="G160" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="H160" s="9">
+        <v>1</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161">
+        <v>2015</v>
+      </c>
+      <c r="F161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G161" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H161" s="9">
+        <v>1</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E162">
+        <v>2015</v>
+      </c>
+      <c r="F162" t="s">
+        <v>164</v>
+      </c>
+      <c r="G162" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H162" s="9">
+        <v>1</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163">
+        <v>2015</v>
+      </c>
+      <c r="F163" t="s">
+        <v>164</v>
+      </c>
+      <c r="G163" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H163" s="9">
+        <v>1</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D164" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E155">
-        <v>2015</v>
-      </c>
-      <c r="F155" t="s">
-        <v>166</v>
-      </c>
-      <c r="G155" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-      <c r="I155" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>168</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="E164">
+        <v>2015</v>
+      </c>
+      <c r="F164" t="s">
+        <v>164</v>
+      </c>
+      <c r="G164" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D165" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E156">
-        <v>2015</v>
-      </c>
-      <c r="F156" t="s">
-        <v>166</v>
-      </c>
-      <c r="G156" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H156" s="9">
-        <v>1</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J156" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>168</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="E165">
+        <v>2015</v>
+      </c>
+      <c r="F165" t="s">
+        <v>164</v>
+      </c>
+      <c r="G165" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D166" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E157">
-        <v>2015</v>
-      </c>
-      <c r="F157" t="s">
-        <v>166</v>
-      </c>
-      <c r="G157" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="E166">
+        <v>2015</v>
+      </c>
+      <c r="F166" t="s">
+        <v>164</v>
+      </c>
+      <c r="G166" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H166" s="9">
+        <v>1</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D167" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E158">
-        <v>2015</v>
-      </c>
-      <c r="F158" t="s">
-        <v>166</v>
-      </c>
-      <c r="G158" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H158" s="9">
-        <v>1</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J158" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="E167">
+        <v>2015</v>
+      </c>
+      <c r="F167" t="s">
+        <v>164</v>
+      </c>
+      <c r="G167" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D168" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E159">
-        <v>2015</v>
-      </c>
-      <c r="F159" t="s">
-        <v>166</v>
-      </c>
-      <c r="G159" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J159" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="E168">
+        <v>2015</v>
+      </c>
+      <c r="F168" t="s">
+        <v>164</v>
+      </c>
+      <c r="G168" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H168" s="9">
+        <v>1</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D169" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E160">
-        <v>2015</v>
-      </c>
-      <c r="F160" t="s">
-        <v>166</v>
-      </c>
-      <c r="G160" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H160" s="9">
-        <v>1</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J160" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" t="s">
-        <v>63</v>
-      </c>
-      <c r="D161" t="s">
-        <v>141</v>
-      </c>
-      <c r="E161">
-        <v>2015</v>
-      </c>
-      <c r="F161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G161" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>169</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E162">
-        <v>2015</v>
-      </c>
-      <c r="F162" t="s">
-        <v>166</v>
-      </c>
-      <c r="G162" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H162" s="9">
-        <v>1</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>169</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E163">
-        <v>2015</v>
-      </c>
-      <c r="F163" t="s">
-        <v>166</v>
-      </c>
-      <c r="G163" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>169</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E164">
-        <v>2015</v>
-      </c>
-      <c r="F164" t="s">
-        <v>166</v>
-      </c>
-      <c r="G164" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H164" s="9">
-        <v>1</v>
-      </c>
-      <c r="I164" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>169</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165">
-        <v>2015</v>
-      </c>
-      <c r="F165" t="s">
-        <v>166</v>
-      </c>
-      <c r="G165" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>169</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E166">
-        <v>2015</v>
-      </c>
-      <c r="F166" t="s">
-        <v>166</v>
-      </c>
-      <c r="G166" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H166" s="9">
-        <v>1</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J166" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>169</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C167" t="s">
-        <v>53</v>
-      </c>
-      <c r="D167" t="s">
-        <v>147</v>
-      </c>
-      <c r="E167">
-        <v>2015</v>
-      </c>
-      <c r="F167" t="s">
-        <v>166</v>
-      </c>
-      <c r="G167" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H167" s="9">
-        <v>1</v>
-      </c>
-      <c r="I167" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J167" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C168" t="s">
-        <v>54</v>
-      </c>
-      <c r="D168" t="s">
-        <v>148</v>
-      </c>
-      <c r="E168">
-        <v>2015</v>
-      </c>
-      <c r="F168" t="s">
-        <v>166</v>
-      </c>
-      <c r="G168" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H168">
-        <v>1</v>
-      </c>
-      <c r="I168" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J168" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C169" t="s">
-        <v>55</v>
-      </c>
-      <c r="D169" t="s">
-        <v>149</v>
-      </c>
       <c r="E169">
         <v>2015</v>
       </c>
       <c r="F169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G169" s="27">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H169" s="9">
         <v>1</v>
@@ -7214,27 +7397,27 @@
         <v>26</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C170" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D170" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E170">
         <v>2015</v>
       </c>
       <c r="F170" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G170" s="27">
         <v>0.01</v>
@@ -7246,27 +7429,27 @@
         <v>26</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C171" t="s">
-        <v>57</v>
-      </c>
-      <c r="D171" t="s">
-        <v>151</v>
+      <c r="C171" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E171">
         <v>2015</v>
       </c>
       <c r="F171" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G171" s="27">
         <v>0.01</v>
@@ -7278,27 +7461,27 @@
         <v>26</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C172" t="s">
-        <v>58</v>
-      </c>
-      <c r="D172" t="s">
-        <v>152</v>
+      <c r="C172" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E172">
         <v>2015</v>
       </c>
       <c r="F172" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G172" s="27">
         <v>0.01</v>
@@ -7310,27 +7493,27 @@
         <v>26</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C173" t="s">
-        <v>59</v>
-      </c>
-      <c r="D173" t="s">
-        <v>153</v>
+      <c r="C173" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E173">
         <v>2015</v>
       </c>
       <c r="F173" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G173" s="27">
         <v>0.01</v>
@@ -7342,27 +7525,27 @@
         <v>26</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C174" t="s">
-        <v>60</v>
-      </c>
-      <c r="D174" t="s">
-        <v>154</v>
+      <c r="C174" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E174">
         <v>2015</v>
       </c>
       <c r="F174" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G174" s="27">
         <v>0.01</v>
@@ -7374,27 +7557,27 @@
         <v>26</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C175" t="s">
-        <v>61</v>
-      </c>
-      <c r="D175" t="s">
-        <v>155</v>
+      <c r="C175" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E175">
         <v>2015</v>
       </c>
       <c r="F175" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G175" s="27">
         <v>0.01</v>
@@ -7406,12 +7589,12 @@
         <v>26</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="35" t="s">
-        <v>171</v>
+      <c r="A176" t="s">
+        <v>167</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>82</v>
@@ -7426,10 +7609,10 @@
         <v>2015</v>
       </c>
       <c r="F176" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G176" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H176" s="9">
         <v>1</v>
@@ -7438,12 +7621,12 @@
         <v>26</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="35" t="s">
-        <v>171</v>
+      <c r="A177" t="s">
+        <v>167</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>82</v>
@@ -7458,10 +7641,10 @@
         <v>2015</v>
       </c>
       <c r="F177" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G177" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -7470,12 +7653,12 @@
         <v>26</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="35" t="s">
-        <v>171</v>
+      <c r="A178" t="s">
+        <v>167</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>82</v>
@@ -7490,10 +7673,10 @@
         <v>2015</v>
       </c>
       <c r="F178" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G178" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H178" s="9">
         <v>1</v>
@@ -7502,12 +7685,12 @@
         <v>26</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="35" t="s">
-        <v>171</v>
+      <c r="A179" t="s">
+        <v>167</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>82</v>
@@ -7522,10 +7705,10 @@
         <v>2015</v>
       </c>
       <c r="F179" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G179" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -7534,12 +7717,12 @@
         <v>26</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="35" t="s">
-        <v>171</v>
+      <c r="A180" t="s">
+        <v>167</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>82</v>
@@ -7554,10 +7737,10 @@
         <v>2015</v>
       </c>
       <c r="F180" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G180" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H180" s="9">
         <v>1</v>
@@ -7566,12 +7749,12 @@
         <v>26</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="35" t="s">
-        <v>171</v>
+      <c r="A181" t="s">
+        <v>167</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>82</v>
@@ -7586,10 +7769,10 @@
         <v>2015</v>
       </c>
       <c r="F181" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G181" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -7598,12 +7781,12 @@
         <v>26</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="35" t="s">
-        <v>171</v>
+      <c r="A182" t="s">
+        <v>167</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>82</v>
@@ -7618,24 +7801,24 @@
         <v>2015</v>
       </c>
       <c r="F182" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G182" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="H182" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="H182">
         <v>1</v>
       </c>
       <c r="I182" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="35" t="s">
-        <v>171</v>
+      <c r="A183" t="s">
+        <v>167</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>82</v>
@@ -7650,10 +7833,10 @@
         <v>2015</v>
       </c>
       <c r="F183" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G183" s="27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -7662,12 +7845,12 @@
         <v>26</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="35" t="s">
-        <v>171</v>
+      <c r="A184" t="s">
+        <v>167</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>82</v>
@@ -7682,140 +7865,1006 @@
         <v>2015</v>
       </c>
       <c r="F184" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G184" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="H184" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="H184">
         <v>1</v>
       </c>
       <c r="I184" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B185" s="9"/>
+      <c r="A185" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D185" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185">
+        <v>2015</v>
+      </c>
+      <c r="F185" t="s">
+        <v>164</v>
+      </c>
+      <c r="G185" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B186" s="9"/>
+      <c r="A186" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B186" t="s">
+        <v>231</v>
+      </c>
+      <c r="C186" t="s">
+        <v>172</v>
+      </c>
+      <c r="D186" t="s">
+        <v>202</v>
+      </c>
+      <c r="E186">
+        <v>2015</v>
+      </c>
+      <c r="F186" t="s">
+        <v>164</v>
+      </c>
+      <c r="G186" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B187" s="9"/>
+      <c r="A187" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B187" t="s">
+        <v>231</v>
+      </c>
+      <c r="C187" t="s">
+        <v>173</v>
+      </c>
+      <c r="D187" t="s">
+        <v>203</v>
+      </c>
+      <c r="E187">
+        <v>2015</v>
+      </c>
+      <c r="F187" t="s">
+        <v>164</v>
+      </c>
+      <c r="G187" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B188" s="9"/>
+      <c r="A188" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" t="s">
+        <v>174</v>
+      </c>
+      <c r="D188" t="s">
+        <v>204</v>
+      </c>
+      <c r="E188">
+        <v>2015</v>
+      </c>
+      <c r="F188" t="s">
+        <v>164</v>
+      </c>
+      <c r="G188" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B189" s="9"/>
+      <c r="A189" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" t="s">
+        <v>231</v>
+      </c>
+      <c r="C189" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189" t="s">
+        <v>205</v>
+      </c>
+      <c r="E189">
+        <v>2015</v>
+      </c>
+      <c r="F189" t="s">
+        <v>164</v>
+      </c>
+      <c r="G189" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B190" s="9"/>
+      <c r="A190" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" t="s">
+        <v>231</v>
+      </c>
+      <c r="C190" t="s">
+        <v>176</v>
+      </c>
+      <c r="D190" t="s">
+        <v>206</v>
+      </c>
+      <c r="E190">
+        <v>2015</v>
+      </c>
+      <c r="F190" t="s">
+        <v>164</v>
+      </c>
+      <c r="G190" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B191" s="9"/>
+      <c r="A191" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" t="s">
+        <v>231</v>
+      </c>
+      <c r="C191" t="s">
+        <v>177</v>
+      </c>
+      <c r="D191" t="s">
+        <v>207</v>
+      </c>
+      <c r="E191">
+        <v>2015</v>
+      </c>
+      <c r="F191" t="s">
+        <v>164</v>
+      </c>
+      <c r="G191" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B192" s="9"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="9"/>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="9"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="9"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="9"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B197" s="9"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B198" s="9"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B199" s="9"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B200" s="9"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B201" s="9"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B202" s="9"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B203" s="9"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B204" s="9"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B205" s="9"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B206" s="9"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B207" s="9"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B208" s="9"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="9"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="9"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="9"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="9"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="9"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="9"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B192" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" t="s">
+        <v>178</v>
+      </c>
+      <c r="D192" t="s">
+        <v>208</v>
+      </c>
+      <c r="E192">
+        <v>2015</v>
+      </c>
+      <c r="F192" t="s">
+        <v>164</v>
+      </c>
+      <c r="G192" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B193" t="s">
+        <v>231</v>
+      </c>
+      <c r="C193" t="s">
+        <v>179</v>
+      </c>
+      <c r="D193" t="s">
+        <v>209</v>
+      </c>
+      <c r="E193">
+        <v>2015</v>
+      </c>
+      <c r="F193" t="s">
+        <v>164</v>
+      </c>
+      <c r="G193" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C194" t="s">
+        <v>180</v>
+      </c>
+      <c r="D194" t="s">
+        <v>210</v>
+      </c>
+      <c r="E194">
+        <v>2015</v>
+      </c>
+      <c r="F194" t="s">
+        <v>164</v>
+      </c>
+      <c r="G194" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B195" t="s">
+        <v>231</v>
+      </c>
+      <c r="C195" t="s">
+        <v>181</v>
+      </c>
+      <c r="D195" t="s">
+        <v>211</v>
+      </c>
+      <c r="E195">
+        <v>2015</v>
+      </c>
+      <c r="F195" t="s">
+        <v>164</v>
+      </c>
+      <c r="G195" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B196" t="s">
+        <v>231</v>
+      </c>
+      <c r="C196" t="s">
+        <v>182</v>
+      </c>
+      <c r="D196" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196">
+        <v>2015</v>
+      </c>
+      <c r="F196" t="s">
+        <v>164</v>
+      </c>
+      <c r="G196" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" t="s">
+        <v>231</v>
+      </c>
+      <c r="C197" t="s">
+        <v>183</v>
+      </c>
+      <c r="D197" t="s">
+        <v>213</v>
+      </c>
+      <c r="E197">
+        <v>2015</v>
+      </c>
+      <c r="F197" t="s">
+        <v>164</v>
+      </c>
+      <c r="G197" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B198" t="s">
+        <v>231</v>
+      </c>
+      <c r="C198" t="s">
+        <v>184</v>
+      </c>
+      <c r="D198" t="s">
+        <v>214</v>
+      </c>
+      <c r="E198">
+        <v>2015</v>
+      </c>
+      <c r="F198" t="s">
+        <v>164</v>
+      </c>
+      <c r="G198" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B199" t="s">
+        <v>231</v>
+      </c>
+      <c r="C199" t="s">
+        <v>185</v>
+      </c>
+      <c r="D199" t="s">
+        <v>215</v>
+      </c>
+      <c r="E199">
+        <v>2015</v>
+      </c>
+      <c r="F199" t="s">
+        <v>164</v>
+      </c>
+      <c r="G199" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B200" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" t="s">
+        <v>186</v>
+      </c>
+      <c r="D200" t="s">
+        <v>216</v>
+      </c>
+      <c r="E200">
+        <v>2015</v>
+      </c>
+      <c r="F200" t="s">
+        <v>164</v>
+      </c>
+      <c r="G200" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B201" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" t="s">
+        <v>187</v>
+      </c>
+      <c r="D201" t="s">
+        <v>217</v>
+      </c>
+      <c r="E201">
+        <v>2015</v>
+      </c>
+      <c r="F201" t="s">
+        <v>164</v>
+      </c>
+      <c r="G201" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B202" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" t="s">
+        <v>188</v>
+      </c>
+      <c r="D202" t="s">
+        <v>218</v>
+      </c>
+      <c r="E202">
+        <v>2015</v>
+      </c>
+      <c r="F202" t="s">
+        <v>164</v>
+      </c>
+      <c r="G202" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B203" t="s">
+        <v>231</v>
+      </c>
+      <c r="C203" t="s">
+        <v>189</v>
+      </c>
+      <c r="D203" t="s">
+        <v>219</v>
+      </c>
+      <c r="E203">
+        <v>2015</v>
+      </c>
+      <c r="F203" t="s">
+        <v>164</v>
+      </c>
+      <c r="G203" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" t="s">
+        <v>231</v>
+      </c>
+      <c r="C204" t="s">
+        <v>190</v>
+      </c>
+      <c r="D204" t="s">
+        <v>220</v>
+      </c>
+      <c r="E204">
+        <v>2015</v>
+      </c>
+      <c r="F204" t="s">
+        <v>164</v>
+      </c>
+      <c r="G204" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J204" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B205" t="s">
+        <v>231</v>
+      </c>
+      <c r="C205" t="s">
+        <v>191</v>
+      </c>
+      <c r="D205" t="s">
+        <v>221</v>
+      </c>
+      <c r="E205">
+        <v>2015</v>
+      </c>
+      <c r="F205" t="s">
+        <v>164</v>
+      </c>
+      <c r="G205" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B206" t="s">
+        <v>231</v>
+      </c>
+      <c r="C206" t="s">
+        <v>192</v>
+      </c>
+      <c r="D206" t="s">
+        <v>222</v>
+      </c>
+      <c r="E206">
+        <v>2015</v>
+      </c>
+      <c r="F206" t="s">
+        <v>164</v>
+      </c>
+      <c r="G206" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J206" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" t="s">
+        <v>231</v>
+      </c>
+      <c r="C207" t="s">
+        <v>193</v>
+      </c>
+      <c r="D207" t="s">
+        <v>223</v>
+      </c>
+      <c r="E207">
+        <v>2015</v>
+      </c>
+      <c r="F207" t="s">
+        <v>164</v>
+      </c>
+      <c r="G207" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B208" t="s">
+        <v>231</v>
+      </c>
+      <c r="C208" t="s">
+        <v>194</v>
+      </c>
+      <c r="D208" t="s">
+        <v>224</v>
+      </c>
+      <c r="E208">
+        <v>2015</v>
+      </c>
+      <c r="F208" t="s">
+        <v>164</v>
+      </c>
+      <c r="G208" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J208" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B209" t="s">
+        <v>231</v>
+      </c>
+      <c r="C209" t="s">
+        <v>195</v>
+      </c>
+      <c r="D209" t="s">
+        <v>225</v>
+      </c>
+      <c r="E209">
+        <v>2015</v>
+      </c>
+      <c r="F209" t="s">
+        <v>164</v>
+      </c>
+      <c r="G209" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J209" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B210" t="s">
+        <v>231</v>
+      </c>
+      <c r="C210" t="s">
+        <v>196</v>
+      </c>
+      <c r="D210" t="s">
+        <v>226</v>
+      </c>
+      <c r="E210">
+        <v>2015</v>
+      </c>
+      <c r="F210" t="s">
+        <v>164</v>
+      </c>
+      <c r="G210" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J210" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" t="s">
+        <v>231</v>
+      </c>
+      <c r="C211" t="s">
+        <v>197</v>
+      </c>
+      <c r="D211" t="s">
+        <v>227</v>
+      </c>
+      <c r="E211">
+        <v>2015</v>
+      </c>
+      <c r="F211" t="s">
+        <v>164</v>
+      </c>
+      <c r="G211" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J211" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B212" t="s">
+        <v>231</v>
+      </c>
+      <c r="C212" t="s">
+        <v>198</v>
+      </c>
+      <c r="D212" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212">
+        <v>2015</v>
+      </c>
+      <c r="F212" t="s">
+        <v>164</v>
+      </c>
+      <c r="G212" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B213" t="s">
+        <v>231</v>
+      </c>
+      <c r="C213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D213" t="s">
+        <v>229</v>
+      </c>
+      <c r="E213">
+        <v>2015</v>
+      </c>
+      <c r="F213" t="s">
+        <v>164</v>
+      </c>
+      <c r="G213" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J213" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B214" t="s">
+        <v>231</v>
+      </c>
+      <c r="C214" t="s">
+        <v>200</v>
+      </c>
+      <c r="D214" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214">
+        <v>2015</v>
+      </c>
+      <c r="F214" t="s">
+        <v>164</v>
+      </c>
+      <c r="G214" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J214" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B216" s="9"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B217" s="9"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B218" s="9"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B219" s="9"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B220" s="9"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B221" s="9"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B222" s="9"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B223" s="9"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B224" s="9"/>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.3">
@@ -8785,6 +9834,9 @@
       <c r="E481" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="A2:J481">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -8795,10 +9847,10 @@
   <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="G47" sqref="G45:O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="23"/>
     <col min="2" max="2" width="45.44140625" style="23" bestFit="1" customWidth="1"/>
@@ -10200,49 +11252,49 @@
         <v>75</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
@@ -11277,10 +12329,10 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
